--- a/Hardware/LAB-PRIME/docs/LAB-PRIME-Rev0BOM.xlsx
+++ b/Hardware/LAB-PRIME/docs/LAB-PRIME-Rev0BOM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drmoore\Documents\PEGMA\Hardware\LAB-PRIME\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12810" yWindow="-15" windowWidth="18345" windowHeight="13440" activeTab="1"/>
+    <workbookView xWindow="15060" yWindow="-12" windowWidth="18348" windowHeight="13440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>Qty Value                 Device                Package          Parts                                                                                                                                                                                                                                                                                                                                                                                                                        Description                                        MF                   MPN           OC_FARNELL OC_NEWARK</t>
   </si>
@@ -297,12 +302,6 @@
     <t>Printed Circuit Board</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>SUPPLIER</t>
   </si>
   <si>
@@ -315,75 +314,6 @@
     <t>SeeedStudio</t>
   </si>
   <si>
-    <t>IS61WV102416BLL-10TLI</t>
-  </si>
-  <si>
-    <t>ISSI</t>
-  </si>
-  <si>
-    <t>IC SRAM 16MBIT 10NS 48TSOP</t>
-  </si>
-  <si>
-    <t>48-TSOP I</t>
-  </si>
-  <si>
-    <t>706-1055-ND</t>
-  </si>
-  <si>
-    <t>SN74LVC138APWR</t>
-  </si>
-  <si>
-    <t>IC 3-8 DECODER/DEMUX 16-TSSOP</t>
-  </si>
-  <si>
-    <t>16-TSSOP</t>
-  </si>
-  <si>
-    <t>296-1223-1-ND</t>
-  </si>
-  <si>
-    <t>MT29F4G16ABADAWP-IT:D TR</t>
-  </si>
-  <si>
-    <t>Temp Rated</t>
-  </si>
-  <si>
-    <t>U2, U3, U4, U5</t>
-  </si>
-  <si>
-    <t>Micron</t>
-  </si>
-  <si>
-    <t>IC FLASH 4GBIT 48TSOP</t>
-  </si>
-  <si>
-    <t>48-TFSOP</t>
-  </si>
-  <si>
-    <t>U6, U7</t>
-  </si>
-  <si>
-    <t>557-1457-1-ND</t>
-  </si>
-  <si>
-    <t>1274-1016-ND </t>
-  </si>
-  <si>
-    <t>IC FLASH 1GBIT 100NS 56TSOP</t>
-  </si>
-  <si>
-    <t>Spansion</t>
-  </si>
-  <si>
-    <t>56-TFSOP</t>
-  </si>
-  <si>
-    <t>S29GL01GS10TFI010</t>
-  </si>
-  <si>
-    <t>U8, U9</t>
-  </si>
-  <si>
     <t>LAB-PRIME</t>
   </si>
   <si>
@@ -394,6 +324,18 @@
   </si>
   <si>
     <t>LAB-PRIME-PCB</t>
+  </si>
+  <si>
+    <t>NHD-2.4-240320SF-CTXI#-FT1-ND</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>LCD TFT 2.4" 240X320 40P TCHPNL</t>
+  </si>
+  <si>
+    <t>Newhaven Display</t>
   </si>
 </sst>
 </file>
@@ -564,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -644,6 +586,16 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,7 +658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,7 +693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -956,7 +908,7 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1364,25 +1316,25 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="32.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1392,7 +1344,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="23" t="s">
         <v>79</v>
@@ -1404,13 +1356,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="3"/>
@@ -1418,13 +1370,13 @@
       <c r="G3" s="3"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="3"/>
@@ -1432,13 +1384,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="3"/>
@@ -1446,7 +1398,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
         <v>83</v>
@@ -1460,7 +1412,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1470,7 +1422,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
@@ -1496,21 +1448,21 @@
         <v>90</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>92</v>
@@ -1523,131 +1475,71 @@
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="C10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="15">
-        <v>4</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
-        <v>97</v>
+      <c r="G10" s="32">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <v>4</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="19">
-        <v>2</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="15">
-        <v>2</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I11" s="19"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="15"/>
@@ -1659,7 +1551,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="18"/>
       <c r="C15" s="15"/>
@@ -1671,7 +1563,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="15"/>
@@ -1683,7 +1575,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="21"/>
       <c r="C17" s="15"/>
@@ -1695,7 +1587,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="21"/>
       <c r="C18" s="15"/>
@@ -1707,7 +1599,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="21"/>
       <c r="C19" s="15"/>
@@ -1719,7 +1611,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="21"/>
       <c r="C20" s="15"/>
@@ -1731,7 +1623,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="21"/>
       <c r="C21" s="15"/>
@@ -1743,7 +1635,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="21"/>
       <c r="C22" s="15"/>
@@ -1755,7 +1647,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="21"/>
       <c r="C23" s="15"/>
@@ -1767,7 +1659,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="21"/>
       <c r="C24" s="15"/>
@@ -1779,7 +1671,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="21"/>
       <c r="C25" s="15"/>
@@ -1791,7 +1683,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="17"/>
       <c r="C26" s="19"/>
@@ -1803,7 +1695,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -1814,7 +1706,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1825,7 +1717,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15"/>
@@ -1836,7 +1728,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
@@ -1847,7 +1739,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
@@ -1858,7 +1750,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
@@ -1869,7 +1761,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="15"/>
@@ -1880,7 +1772,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15"/>
@@ -1891,7 +1783,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="15"/>
@@ -1902,7 +1794,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="15"/>
@@ -1913,7 +1805,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -1924,7 +1816,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="15"/>
@@ -1935,7 +1827,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="15"/>
@@ -1946,7 +1838,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="15"/>
@@ -1957,7 +1849,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="15"/>
@@ -1968,7 +1860,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="15"/>
@@ -2039,13 +1931,13 @@
     <row r="62" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
     </row>
   </sheetData>
@@ -2057,13 +1949,10 @@
     <mergeCell ref="C6:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1" display="http://www.digikey.com/product-detail/en/IS61WV102416BLL-10TLI/706-1055-ND/1557456"/>
-    <hyperlink ref="J11" r:id="rId2" display="http://www.digikey.com/product-detail/en/SN74LVC138APWR/296-1223-1-ND/276491"/>
-    <hyperlink ref="J12" r:id="rId3" display="http://www.digikey.com/product-detail/en/MT29F4G16ABADAWP-IT:D TR/557-1457-1-ND/2380267"/>
-    <hyperlink ref="J13" r:id="rId4" display="http://www.digikey.com/product-detail/en/S29GL01GS10TFI010/1274-1016-ND/3761524"/>
+    <hyperlink ref="J10" r:id="rId1" display="http://www.digikey.com/product-detail/en/NHD-2.4-240320SF-CTXI%23-FT1/NHD-2.4-240320SF-CTXI%23-FT1-ND/2626401"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2073,7 +1962,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware/LAB-PRIME/docs/LAB-PRIME-Rev0BOM.xlsx
+++ b/Hardware/LAB-PRIME/docs/LAB-PRIME-Rev0BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="-12" windowWidth="18348" windowHeight="13440" activeTab="1"/>
+    <workbookView xWindow="15060" yWindow="-12" windowWidth="9972" windowHeight="10884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
